--- a/LED Layout.xlsx
+++ b/LED Layout.xlsx
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,6 +1068,9 @@
       <c r="E27" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
@@ -1078,6 +1081,9 @@
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
+      <c r="F28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
@@ -1088,6 +1094,9 @@
         <v>2</v>
       </c>
       <c r="E29" s="4"/>
+      <c r="F29">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
@@ -1098,6 +1107,9 @@
         <v>3</v>
       </c>
       <c r="E30" s="4"/>
+      <c r="F30">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
@@ -1108,6 +1120,9 @@
         <v>4</v>
       </c>
       <c r="E31" s="4"/>
+      <c r="F31">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -1118,8 +1133,11 @@
         <v>5</v>
       </c>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" t="s">
         <v>45</v>
@@ -1128,8 +1146,11 @@
         <v>6</v>
       </c>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" t="s">
         <v>49</v>
@@ -1138,8 +1159,11 @@
         <v>7</v>
       </c>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="2:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
@@ -1150,8 +1174,11 @@
         <v>8</v>
       </c>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>54</v>
@@ -1160,8 +1187,11 @@
         <v>9</v>
       </c>
       <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" t="s">
         <v>51</v>
@@ -1170,8 +1200,11 @@
         <v>10</v>
       </c>
       <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" t="s">
         <v>55</v>
@@ -1180,8 +1213,11 @@
         <v>11</v>
       </c>
       <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" t="s">
         <v>52</v>
@@ -1190,8 +1226,11 @@
         <v>12</v>
       </c>
       <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>56</v>
@@ -1200,8 +1239,11 @@
         <v>13</v>
       </c>
       <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" t="s">
         <v>53</v>
@@ -1210,8 +1252,11 @@
         <v>14</v>
       </c>
       <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" t="s">
         <v>57</v>
@@ -1220,6 +1265,9 @@
         <v>15</v>
       </c>
       <c r="E42" s="4"/>
+      <c r="F42">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
